--- a/COSC 60 - IT 2D/POINTS - IT 2D.xlsx
+++ b/COSC 60 - IT 2D/POINTS - IT 2D.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\WORK\CvSU\2017-2018 Second Semester\COSC 60 - IT 2D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\WORK\CvSU\2017-2018 Second Semester\Grading-Sheets-Second-Sem-2017-2018\COSC 60 - IT 2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE7CD39-07F5-477D-A1CB-F24E7ACBB4D4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB08D50-5377-4184-8ABF-AA6122F14E55}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -743,7 +743,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1841,11 +1841,11 @@
   <dimension ref="A1:AN61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK4" sqref="AK4"/>
+      <pane xSplit="5" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AL10" sqref="AL10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
@@ -1855,7 +1855,7 @@
     <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" ht="15">
       <c r="A1" s="57" t="s">
         <v>48</v>
       </c>
@@ -1907,7 +1907,7 @@
       <c r="AM1" s="56"/>
       <c r="AN1" s="56"/>
     </row>
-    <row r="2" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" ht="15">
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40">
       <c r="A3" s="46" t="s">
         <v>183</v>
       </c>
@@ -2072,25 +2072,27 @@
       <c r="AD3" s="28"/>
       <c r="AE3" s="28"/>
       <c r="AF3" s="28"/>
-      <c r="AG3" s="28"/>
+      <c r="AG3" s="28">
+        <v>50</v>
+      </c>
       <c r="AH3" s="28"/>
       <c r="AI3" s="28"/>
       <c r="AJ3" s="30">
         <f>SUM(F3:AI3)</f>
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AK3" s="30">
         <f>IF(AJ3&gt;100,AJ3-(AJ3-100),AJ3)</f>
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AL3" s="30">
-        <f>IF(AK3&gt;100,AK3-100,0)</f>
+        <f>IF(AJ3&gt;100,(AJ3-100)/10,0)</f>
         <v>0</v>
       </c>
       <c r="AM3" s="30"/>
       <c r="AN3" s="30"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40">
       <c r="A4" s="2" t="s">
         <v>71</v>
       </c>
@@ -2143,13 +2145,13 @@
         <v>0</v>
       </c>
       <c r="AL4" s="30">
-        <f t="shared" ref="AL4:AL23" si="2">IF(AK4&gt;100,AK4-100,0)</f>
+        <f t="shared" ref="AL4:AL57" si="2">IF(AJ4&gt;100,(AJ4-100)/10,0)</f>
         <v>0</v>
       </c>
       <c r="AM4" s="30"/>
       <c r="AN4" s="30"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40">
       <c r="A5" s="18" t="s">
         <v>227</v>
       </c>
@@ -2192,16 +2194,18 @@
       <c r="AD5" s="28"/>
       <c r="AE5" s="28"/>
       <c r="AF5" s="28"/>
-      <c r="AG5" s="28"/>
+      <c r="AG5" s="28">
+        <v>30</v>
+      </c>
       <c r="AH5" s="28"/>
       <c r="AI5" s="28"/>
       <c r="AJ5" s="30">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="AK5" s="30">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="AL5" s="30">
         <f t="shared" si="2"/>
@@ -2210,7 +2214,7 @@
       <c r="AM5" s="30"/>
       <c r="AN5" s="30"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40">
       <c r="A6" s="18" t="s">
         <v>219</v>
       </c>
@@ -2253,16 +2257,18 @@
       <c r="AD6" s="28"/>
       <c r="AE6" s="28"/>
       <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
+      <c r="AG6" s="28">
+        <v>70</v>
+      </c>
       <c r="AH6" s="28"/>
       <c r="AI6" s="28"/>
       <c r="AJ6" s="30">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="AK6" s="30">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="AL6" s="30">
         <f t="shared" si="2"/>
@@ -2271,7 +2277,7 @@
       <c r="AM6" s="30"/>
       <c r="AN6" s="30"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>74</v>
@@ -2314,16 +2320,18 @@
       <c r="AD7" s="28"/>
       <c r="AE7" s="28"/>
       <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
+      <c r="AG7" s="28">
+        <v>50</v>
+      </c>
       <c r="AH7" s="28"/>
       <c r="AI7" s="28"/>
       <c r="AJ7" s="30">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="AK7" s="30">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="AL7" s="30">
         <f t="shared" si="2"/>
@@ -2332,7 +2340,7 @@
       <c r="AM7" s="30"/>
       <c r="AN7" s="30"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40">
       <c r="A8" s="7" t="s">
         <v>76</v>
       </c>
@@ -2377,25 +2385,27 @@
       <c r="AD8" s="28"/>
       <c r="AE8" s="28"/>
       <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
+      <c r="AG8" s="28">
+        <v>70</v>
+      </c>
       <c r="AH8" s="28"/>
       <c r="AI8" s="28"/>
       <c r="AJ8" s="30">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AK8" s="30">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AL8" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM8" s="30"/>
       <c r="AN8" s="30"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40">
       <c r="A9" s="18" t="s">
         <v>222</v>
       </c>
@@ -2438,16 +2448,18 @@
       <c r="AD9" s="28"/>
       <c r="AE9" s="28"/>
       <c r="AF9" s="28"/>
-      <c r="AG9" s="28"/>
+      <c r="AG9" s="28">
+        <v>50</v>
+      </c>
       <c r="AH9" s="28"/>
       <c r="AI9" s="28"/>
       <c r="AJ9" s="30">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AK9" s="30">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AL9" s="30">
         <f t="shared" si="2"/>
@@ -2456,7 +2468,7 @@
       <c r="AM9" s="30"/>
       <c r="AN9" s="30"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40">
       <c r="A10" s="18" t="s">
         <v>80</v>
       </c>
@@ -2501,25 +2513,27 @@
       <c r="AD10" s="28"/>
       <c r="AE10" s="28"/>
       <c r="AF10" s="28"/>
-      <c r="AG10" s="28"/>
+      <c r="AG10" s="28">
+        <v>70</v>
+      </c>
       <c r="AH10" s="28"/>
       <c r="AI10" s="28"/>
       <c r="AJ10" s="30">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="AK10" s="30">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="AL10" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AM10" s="30"/>
       <c r="AN10" s="30"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40">
       <c r="A11" s="18"/>
       <c r="B11" s="18" t="s">
         <v>236</v>
@@ -2558,16 +2572,18 @@
       <c r="AD11" s="28"/>
       <c r="AE11" s="28"/>
       <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
+      <c r="AG11" s="28">
+        <v>70</v>
+      </c>
       <c r="AH11" s="28"/>
       <c r="AI11" s="28"/>
       <c r="AJ11" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK11" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL11" s="30">
         <f t="shared" si="2"/>
@@ -2576,7 +2592,7 @@
       <c r="AM11" s="30"/>
       <c r="AN11" s="30"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40">
       <c r="A12" s="18" t="s">
         <v>216</v>
       </c>
@@ -2617,16 +2633,18 @@
       <c r="AD12" s="28"/>
       <c r="AE12" s="28"/>
       <c r="AF12" s="28"/>
-      <c r="AG12" s="28"/>
+      <c r="AG12" s="28">
+        <v>50</v>
+      </c>
       <c r="AH12" s="28"/>
       <c r="AI12" s="28"/>
       <c r="AJ12" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK12" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL12" s="30">
         <f t="shared" si="2"/>
@@ -2635,7 +2653,7 @@
       <c r="AM12" s="30"/>
       <c r="AN12" s="30"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40">
       <c r="A13" s="18" t="s">
         <v>178</v>
       </c>
@@ -2680,16 +2698,18 @@
       <c r="AD13" s="28"/>
       <c r="AE13" s="28"/>
       <c r="AF13" s="28"/>
-      <c r="AG13" s="28"/>
+      <c r="AG13" s="28">
+        <v>50</v>
+      </c>
       <c r="AH13" s="28"/>
       <c r="AI13" s="28"/>
       <c r="AJ13" s="30">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AK13" s="30">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AL13" s="30">
         <f t="shared" si="2"/>
@@ -2698,7 +2718,7 @@
       <c r="AM13" s="30"/>
       <c r="AN13" s="30"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40">
       <c r="A14" s="18" t="s">
         <v>192</v>
       </c>
@@ -2743,16 +2763,18 @@
       <c r="AD14" s="28"/>
       <c r="AE14" s="28"/>
       <c r="AF14" s="28"/>
-      <c r="AG14" s="28"/>
+      <c r="AG14" s="28">
+        <v>50</v>
+      </c>
       <c r="AH14" s="28"/>
       <c r="AI14" s="28"/>
       <c r="AJ14" s="30">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AK14" s="30">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AL14" s="30">
         <f t="shared" si="2"/>
@@ -2761,7 +2783,7 @@
       <c r="AM14" s="30"/>
       <c r="AN14" s="30"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40">
       <c r="A15" s="2" t="s">
         <v>83</v>
       </c>
@@ -2802,16 +2824,18 @@
       <c r="AD15" s="28"/>
       <c r="AE15" s="28"/>
       <c r="AF15" s="28"/>
-      <c r="AG15" s="28"/>
+      <c r="AG15" s="28">
+        <v>50</v>
+      </c>
       <c r="AH15" s="28"/>
       <c r="AI15" s="28"/>
       <c r="AJ15" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK15" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL15" s="30">
         <f t="shared" si="2"/>
@@ -2820,7 +2844,7 @@
       <c r="AM15" s="30"/>
       <c r="AN15" s="30"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40">
       <c r="A16" s="18" t="s">
         <v>205</v>
       </c>
@@ -2861,16 +2885,18 @@
       <c r="AD16" s="28"/>
       <c r="AE16" s="28"/>
       <c r="AF16" s="28"/>
-      <c r="AG16" s="28"/>
+      <c r="AG16" s="28">
+        <v>50</v>
+      </c>
       <c r="AH16" s="28"/>
       <c r="AI16" s="28"/>
       <c r="AJ16" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK16" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL16" s="30">
         <f t="shared" si="2"/>
@@ -2879,7 +2905,7 @@
       <c r="AM16" s="30"/>
       <c r="AN16" s="30"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40">
       <c r="A17" s="18" t="s">
         <v>195</v>
       </c>
@@ -2924,25 +2950,27 @@
       <c r="AD17" s="28"/>
       <c r="AE17" s="28"/>
       <c r="AF17" s="28"/>
-      <c r="AG17" s="28"/>
+      <c r="AG17" s="28">
+        <v>70</v>
+      </c>
       <c r="AH17" s="28"/>
       <c r="AI17" s="28"/>
       <c r="AJ17" s="30">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="AK17" s="30">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AL17" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM17" s="30"/>
       <c r="AN17" s="30"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40">
       <c r="A18" s="2" t="s">
         <v>86</v>
       </c>
@@ -2985,16 +3013,18 @@
       <c r="AD18" s="28"/>
       <c r="AE18" s="28"/>
       <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
+      <c r="AG18" s="28">
+        <v>50</v>
+      </c>
       <c r="AH18" s="28"/>
       <c r="AI18" s="28"/>
       <c r="AJ18" s="30">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="AK18" s="30">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="AL18" s="30">
         <f t="shared" si="2"/>
@@ -3003,7 +3033,7 @@
       <c r="AM18" s="30"/>
       <c r="AN18" s="30"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40">
       <c r="A19" s="18" t="s">
         <v>212</v>
       </c>
@@ -3044,16 +3074,18 @@
       <c r="AD19" s="28"/>
       <c r="AE19" s="28"/>
       <c r="AF19" s="28"/>
-      <c r="AG19" s="28"/>
+      <c r="AG19" s="28">
+        <v>70</v>
+      </c>
       <c r="AH19" s="28"/>
       <c r="AI19" s="28"/>
       <c r="AJ19" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK19" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL19" s="30">
         <f t="shared" si="2"/>
@@ -3062,7 +3094,7 @@
       <c r="AM19" s="30"/>
       <c r="AN19" s="30"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40">
       <c r="A20" s="18" t="s">
         <v>89</v>
       </c>
@@ -3107,16 +3139,18 @@
       <c r="AD20" s="28"/>
       <c r="AE20" s="28"/>
       <c r="AF20" s="28"/>
-      <c r="AG20" s="28"/>
+      <c r="AG20" s="28">
+        <v>50</v>
+      </c>
       <c r="AH20" s="28"/>
       <c r="AI20" s="28"/>
       <c r="AJ20" s="30">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AK20" s="30">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AL20" s="30">
         <f t="shared" si="2"/>
@@ -3125,7 +3159,7 @@
       <c r="AM20" s="30"/>
       <c r="AN20" s="30"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40">
       <c r="A21" s="18" t="s">
         <v>202</v>
       </c>
@@ -3168,16 +3202,18 @@
       <c r="AD21" s="28"/>
       <c r="AE21" s="28"/>
       <c r="AF21" s="28"/>
-      <c r="AG21" s="28"/>
+      <c r="AG21" s="28">
+        <v>50</v>
+      </c>
       <c r="AH21" s="28"/>
       <c r="AI21" s="28"/>
       <c r="AJ21" s="30">
         <f>SUM(F21:AI21)</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="AK21" s="30">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="AL21" s="30">
         <f t="shared" si="2"/>
@@ -3186,7 +3222,7 @@
       <c r="AM21" s="30"/>
       <c r="AN21" s="30"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40">
       <c r="A22" s="2" t="s">
         <v>92</v>
       </c>
@@ -3231,16 +3267,18 @@
       <c r="AD22" s="28"/>
       <c r="AE22" s="28"/>
       <c r="AF22" s="28"/>
-      <c r="AG22" s="28"/>
+      <c r="AG22" s="28">
+        <v>50</v>
+      </c>
       <c r="AH22" s="28"/>
       <c r="AI22" s="28"/>
       <c r="AJ22" s="30">
         <f t="shared" ref="AJ22:AJ23" si="3">SUM(F22:AI22)</f>
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="AK22" s="30">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="AL22" s="30">
         <f t="shared" si="2"/>
@@ -3249,7 +3287,7 @@
       <c r="AM22" s="30"/>
       <c r="AN22" s="30"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40">
       <c r="A23" s="2" t="s">
         <v>96</v>
       </c>
@@ -3294,16 +3332,18 @@
       <c r="AD23" s="28"/>
       <c r="AE23" s="28"/>
       <c r="AF23" s="28"/>
-      <c r="AG23" s="28"/>
+      <c r="AG23" s="28">
+        <v>50</v>
+      </c>
       <c r="AH23" s="28"/>
       <c r="AI23" s="28"/>
       <c r="AJ23" s="30">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AK23" s="30">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AL23" s="30">
         <f t="shared" si="2"/>
@@ -3312,7 +3352,7 @@
       <c r="AM23" s="30"/>
       <c r="AN23" s="30"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40">
       <c r="A24" s="2" t="s">
         <v>99</v>
       </c>
@@ -3353,25 +3393,27 @@
       <c r="AD24" s="28"/>
       <c r="AE24" s="28"/>
       <c r="AF24" s="28"/>
-      <c r="AG24" s="28"/>
+      <c r="AG24" s="28">
+        <v>50</v>
+      </c>
       <c r="AH24" s="28"/>
       <c r="AI24" s="28"/>
       <c r="AJ24" s="30">
         <f t="shared" ref="AJ24:AJ34" si="4">SUM(F24:AI24)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK24" s="30">
         <f t="shared" ref="AK24:AK34" si="5">IF(AJ24&gt;100,AJ24-(AJ24-100),AJ24)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL24" s="30">
-        <f t="shared" ref="AL24:AL34" si="6">IF(AK24&gt;100,AK24-100,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM24" s="30"/>
       <c r="AN24" s="30"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40">
       <c r="A25" s="6" t="s">
         <v>102</v>
       </c>
@@ -3414,25 +3456,27 @@
       <c r="AD25" s="28"/>
       <c r="AE25" s="28"/>
       <c r="AF25" s="28"/>
-      <c r="AG25" s="28"/>
+      <c r="AG25" s="28">
+        <v>50</v>
+      </c>
       <c r="AH25" s="28"/>
       <c r="AI25" s="28"/>
       <c r="AJ25" s="30">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AK25" s="30">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AL25" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM25" s="30"/>
       <c r="AN25" s="30"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40">
       <c r="A26" s="18" t="s">
         <v>105</v>
       </c>
@@ -3477,25 +3521,27 @@
       <c r="AD26" s="28"/>
       <c r="AE26" s="28"/>
       <c r="AF26" s="28"/>
-      <c r="AG26" s="28"/>
+      <c r="AG26" s="28">
+        <v>50</v>
+      </c>
       <c r="AH26" s="28"/>
       <c r="AI26" s="28"/>
       <c r="AJ26" s="30">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AK26" s="30">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AL26" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM26" s="30"/>
       <c r="AN26" s="30"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40">
       <c r="A27" s="18" t="s">
         <v>68</v>
       </c>
@@ -3536,25 +3582,27 @@
       <c r="AD27" s="28"/>
       <c r="AE27" s="28"/>
       <c r="AF27" s="28"/>
-      <c r="AG27" s="28"/>
+      <c r="AG27" s="28">
+        <v>50</v>
+      </c>
       <c r="AH27" s="28"/>
       <c r="AI27" s="28"/>
       <c r="AJ27" s="30">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK27" s="30">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL27" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM27" s="30"/>
       <c r="AN27" s="30"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40">
       <c r="A28" s="2" t="s">
         <v>108</v>
       </c>
@@ -3597,25 +3645,27 @@
       <c r="AD28" s="28"/>
       <c r="AE28" s="28"/>
       <c r="AF28" s="28"/>
-      <c r="AG28" s="28"/>
+      <c r="AG28" s="28">
+        <v>50</v>
+      </c>
       <c r="AH28" s="28"/>
       <c r="AI28" s="28"/>
       <c r="AJ28" s="30">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AK28" s="30">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AL28" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM28" s="30"/>
       <c r="AN28" s="30"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40">
       <c r="A29" s="2" t="s">
         <v>111</v>
       </c>
@@ -3668,13 +3718,13 @@
         <v>0</v>
       </c>
       <c r="AL29" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM29" s="30"/>
       <c r="AN29" s="30"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40">
       <c r="A30" s="2" t="s">
         <v>114</v>
       </c>
@@ -3721,25 +3771,27 @@
       <c r="AD30" s="28"/>
       <c r="AE30" s="28"/>
       <c r="AF30" s="28"/>
-      <c r="AG30" s="28"/>
+      <c r="AG30" s="28">
+        <v>50</v>
+      </c>
       <c r="AH30" s="28"/>
       <c r="AI30" s="28"/>
       <c r="AJ30" s="30">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AK30" s="30">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="AL30" s="30">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="AM30" s="30"/>
       <c r="AN30" s="30"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40">
       <c r="A31" s="2" t="s">
         <v>117</v>
       </c>
@@ -3786,25 +3838,27 @@
       <c r="AD31" s="28"/>
       <c r="AE31" s="28"/>
       <c r="AF31" s="28"/>
-      <c r="AG31" s="28"/>
+      <c r="AG31" s="28">
+        <v>70</v>
+      </c>
       <c r="AH31" s="28"/>
       <c r="AI31" s="28"/>
       <c r="AJ31" s="30">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="AK31" s="30">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="AL31" s="30">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="AM31" s="30"/>
       <c r="AN31" s="30"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40">
       <c r="A32" s="2" t="s">
         <v>120</v>
       </c>
@@ -3849,25 +3903,27 @@
       <c r="AD32" s="28"/>
       <c r="AE32" s="28"/>
       <c r="AF32" s="28"/>
-      <c r="AG32" s="28"/>
+      <c r="AG32" s="28">
+        <v>70</v>
+      </c>
       <c r="AH32" s="28"/>
       <c r="AI32" s="28"/>
       <c r="AJ32" s="30">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AK32" s="30">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AL32" s="30">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="AM32" s="30"/>
       <c r="AN32" s="30"/>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40">
       <c r="A33" s="18" t="s">
         <v>186</v>
       </c>
@@ -3912,25 +3968,27 @@
       <c r="AD33" s="28"/>
       <c r="AE33" s="28"/>
       <c r="AF33" s="28"/>
-      <c r="AG33" s="28"/>
+      <c r="AG33" s="28">
+        <v>70</v>
+      </c>
       <c r="AH33" s="28"/>
       <c r="AI33" s="28"/>
       <c r="AJ33" s="30">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="AK33" s="30">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AL33" s="30">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AM33" s="30"/>
       <c r="AN33" s="30"/>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40">
       <c r="A34" s="2" t="s">
         <v>123</v>
       </c>
@@ -3975,25 +4033,27 @@
       <c r="AD34" s="28"/>
       <c r="AE34" s="28"/>
       <c r="AF34" s="28"/>
-      <c r="AG34" s="28"/>
+      <c r="AG34" s="28">
+        <v>70</v>
+      </c>
       <c r="AH34" s="28"/>
       <c r="AI34" s="28"/>
       <c r="AJ34" s="30">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="AK34" s="30">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="AL34" s="30">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.5</v>
       </c>
       <c r="AM34" s="30"/>
       <c r="AN34" s="30"/>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40">
       <c r="A35" s="2" t="s">
         <v>126</v>
       </c>
@@ -4038,25 +4098,27 @@
       <c r="AD35" s="28"/>
       <c r="AE35" s="28"/>
       <c r="AF35" s="28"/>
-      <c r="AG35" s="28"/>
+      <c r="AG35" s="28">
+        <v>50</v>
+      </c>
       <c r="AH35" s="28"/>
       <c r="AI35" s="28"/>
       <c r="AJ35" s="30">
-        <f t="shared" ref="AJ35:AJ61" si="7">SUM(F35:AI35)</f>
-        <v>35</v>
+        <f t="shared" ref="AJ35:AJ61" si="6">SUM(F35:AI35)</f>
+        <v>85</v>
       </c>
       <c r="AK35" s="30">
-        <f t="shared" ref="AK35:AK61" si="8">IF(AJ35&gt;100,AJ35-(AJ35-100),AJ35)</f>
-        <v>35</v>
+        <f t="shared" ref="AK35:AK61" si="7">IF(AJ35&gt;100,AJ35-(AJ35-100),AJ35)</f>
+        <v>85</v>
       </c>
       <c r="AL35" s="30">
-        <f t="shared" ref="AL35:AL61" si="9">IF(AK35&gt;100,AK35-100,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM35" s="30"/>
       <c r="AN35" s="30"/>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40">
       <c r="A36" s="18" t="s">
         <v>209</v>
       </c>
@@ -4099,25 +4161,27 @@
       <c r="AD36" s="28"/>
       <c r="AE36" s="28"/>
       <c r="AF36" s="28"/>
-      <c r="AG36" s="28"/>
+      <c r="AG36" s="28">
+        <v>50</v>
+      </c>
       <c r="AH36" s="28"/>
       <c r="AI36" s="28"/>
       <c r="AJ36" s="30">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="AK36" s="30">
         <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="AK36" s="30">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AL36" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM36" s="30"/>
       <c r="AN36" s="30"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40">
       <c r="A37" s="2" t="s">
         <v>130</v>
       </c>
@@ -4162,25 +4226,27 @@
       <c r="AD37" s="28"/>
       <c r="AE37" s="28"/>
       <c r="AF37" s="28"/>
-      <c r="AG37" s="28"/>
+      <c r="AG37" s="28">
+        <v>70</v>
+      </c>
       <c r="AH37" s="28"/>
       <c r="AI37" s="28"/>
       <c r="AJ37" s="30">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="AK37" s="30">
         <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="AK37" s="30">
-        <f t="shared" si="8"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AL37" s="30">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="AM37" s="30"/>
       <c r="AN37" s="30"/>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40">
       <c r="A38" s="7" t="s">
         <v>233</v>
       </c>
@@ -4225,25 +4291,27 @@
       <c r="AD38" s="28"/>
       <c r="AE38" s="28"/>
       <c r="AF38" s="28"/>
-      <c r="AG38" s="28"/>
+      <c r="AG38" s="28">
+        <v>70</v>
+      </c>
       <c r="AH38" s="28"/>
       <c r="AI38" s="28"/>
       <c r="AJ38" s="30">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="AK38" s="30">
         <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-      <c r="AK38" s="30">
-        <f t="shared" si="8"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AL38" s="30">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AM38" s="30"/>
       <c r="AN38" s="30"/>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40">
       <c r="A39" s="18" t="s">
         <v>135</v>
       </c>
@@ -4288,25 +4356,27 @@
       <c r="AD39" s="28"/>
       <c r="AE39" s="28"/>
       <c r="AF39" s="28"/>
-      <c r="AG39" s="28"/>
+      <c r="AG39" s="28">
+        <v>50</v>
+      </c>
       <c r="AH39" s="28"/>
       <c r="AI39" s="28"/>
       <c r="AJ39" s="30">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="AK39" s="30">
         <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="AK39" s="30">
-        <f t="shared" si="8"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AL39" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM39" s="30"/>
       <c r="AN39" s="30"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40">
       <c r="A40" s="18" t="s">
         <v>230</v>
       </c>
@@ -4349,25 +4419,27 @@
       <c r="AD40" s="28"/>
       <c r="AE40" s="28"/>
       <c r="AF40" s="28"/>
-      <c r="AG40" s="28"/>
+      <c r="AG40" s="28">
+        <v>70</v>
+      </c>
       <c r="AH40" s="28"/>
       <c r="AI40" s="28"/>
       <c r="AJ40" s="30">
+        <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="AK40" s="30">
         <f t="shared" si="7"/>
-        <v>40</v>
-      </c>
-      <c r="AK40" s="30">
-        <f t="shared" si="8"/>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AL40" s="30">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AM40" s="30"/>
       <c r="AN40" s="30"/>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40">
       <c r="A41" s="2" t="s">
         <v>138</v>
       </c>
@@ -4412,25 +4484,27 @@
       <c r="AD41" s="28"/>
       <c r="AE41" s="28"/>
       <c r="AF41" s="28"/>
-      <c r="AG41" s="28"/>
+      <c r="AG41" s="28">
+        <v>50</v>
+      </c>
       <c r="AH41" s="28"/>
       <c r="AI41" s="28"/>
       <c r="AJ41" s="30">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="AK41" s="30">
         <f t="shared" si="7"/>
-        <v>35</v>
-      </c>
-      <c r="AK41" s="30">
-        <f t="shared" si="8"/>
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="AL41" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM41" s="30"/>
       <c r="AN41" s="30"/>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40">
       <c r="A42" s="18" t="s">
         <v>198</v>
       </c>
@@ -4475,21 +4549,21 @@
       <c r="AH42" s="28"/>
       <c r="AI42" s="28"/>
       <c r="AJ42" s="30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK42" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AK42" s="30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
       <c r="AL42" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM42" s="30"/>
       <c r="AN42" s="30"/>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40">
       <c r="A43" s="18" t="s">
         <v>141</v>
       </c>
@@ -4532,25 +4606,27 @@
       <c r="AD43" s="28"/>
       <c r="AE43" s="28"/>
       <c r="AF43" s="28"/>
-      <c r="AG43" s="28"/>
+      <c r="AG43" s="28">
+        <v>70</v>
+      </c>
       <c r="AH43" s="28"/>
       <c r="AI43" s="28"/>
       <c r="AJ43" s="30">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="AK43" s="30">
         <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="AK43" s="30">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="AL43" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM43" s="30"/>
       <c r="AN43" s="30"/>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40">
       <c r="A44" s="18" t="s">
         <v>144</v>
       </c>
@@ -4595,25 +4671,27 @@
       <c r="AD44" s="28"/>
       <c r="AE44" s="28"/>
       <c r="AF44" s="28"/>
-      <c r="AG44" s="28"/>
+      <c r="AG44" s="28">
+        <v>70</v>
+      </c>
       <c r="AH44" s="28"/>
       <c r="AI44" s="28"/>
       <c r="AJ44" s="30">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="AK44" s="30">
         <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="AK44" s="30">
-        <f t="shared" si="8"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AL44" s="30">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="AM44" s="30"/>
       <c r="AN44" s="30"/>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40">
       <c r="A45" s="2" t="s">
         <v>147</v>
       </c>
@@ -4658,25 +4736,27 @@
       <c r="AD45" s="28"/>
       <c r="AE45" s="28"/>
       <c r="AF45" s="28"/>
-      <c r="AG45" s="28"/>
+      <c r="AG45" s="28">
+        <v>70</v>
+      </c>
       <c r="AH45" s="28"/>
       <c r="AI45" s="28"/>
       <c r="AJ45" s="30">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="AK45" s="30">
         <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="AK45" s="30">
-        <f t="shared" si="8"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AL45" s="30">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="AM45" s="30"/>
       <c r="AN45" s="30"/>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40">
       <c r="A46" s="18" t="s">
         <v>150</v>
       </c>
@@ -4719,25 +4799,27 @@
       <c r="AD46" s="28"/>
       <c r="AE46" s="28"/>
       <c r="AF46" s="28"/>
-      <c r="AG46" s="28"/>
+      <c r="AG46" s="28">
+        <v>70</v>
+      </c>
       <c r="AH46" s="28"/>
       <c r="AI46" s="28"/>
       <c r="AJ46" s="30">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="AK46" s="30">
         <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="AK46" s="30">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="AL46" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM46" s="30"/>
       <c r="AN46" s="30"/>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40">
       <c r="A47" s="2" t="s">
         <v>153</v>
       </c>
@@ -4782,25 +4864,27 @@
       <c r="AD47" s="28"/>
       <c r="AE47" s="28"/>
       <c r="AF47" s="28"/>
-      <c r="AG47" s="28"/>
+      <c r="AG47" s="28">
+        <v>70</v>
+      </c>
       <c r="AH47" s="28"/>
       <c r="AI47" s="28"/>
       <c r="AJ47" s="30">
+        <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="AK47" s="30">
         <f t="shared" si="7"/>
-        <v>40</v>
-      </c>
-      <c r="AK47" s="30">
-        <f t="shared" si="8"/>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AL47" s="30">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AM47" s="30"/>
       <c r="AN47" s="30"/>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40">
       <c r="A48" s="2" t="s">
         <v>156</v>
       </c>
@@ -4843,25 +4927,27 @@
       <c r="AD48" s="28"/>
       <c r="AE48" s="28"/>
       <c r="AF48" s="28"/>
-      <c r="AG48" s="28"/>
+      <c r="AG48" s="28">
+        <v>50</v>
+      </c>
       <c r="AH48" s="28"/>
       <c r="AI48" s="28"/>
       <c r="AJ48" s="30">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="AK48" s="30">
         <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="AK48" s="30">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AL48" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM48" s="30"/>
       <c r="AN48" s="30"/>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40">
       <c r="A49" s="2" t="s">
         <v>159</v>
       </c>
@@ -4908,25 +4994,27 @@
       <c r="AD49" s="28"/>
       <c r="AE49" s="28"/>
       <c r="AF49" s="28"/>
-      <c r="AG49" s="28"/>
+      <c r="AG49" s="28">
+        <v>70</v>
+      </c>
       <c r="AH49" s="28"/>
       <c r="AI49" s="28"/>
       <c r="AJ49" s="30">
+        <f t="shared" si="6"/>
+        <v>170</v>
+      </c>
+      <c r="AK49" s="30">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="AK49" s="30">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
       <c r="AL49" s="30">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="AM49" s="30"/>
       <c r="AN49" s="30"/>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40">
       <c r="A50" s="18" t="s">
         <v>189</v>
       </c>
@@ -4967,25 +5055,27 @@
       <c r="AD50" s="28"/>
       <c r="AE50" s="28"/>
       <c r="AF50" s="28"/>
-      <c r="AG50" s="28"/>
+      <c r="AG50" s="28">
+        <v>70</v>
+      </c>
       <c r="AH50" s="28"/>
       <c r="AI50" s="28"/>
       <c r="AJ50" s="30">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="AK50" s="30">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AK50" s="30">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL50" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM50" s="30"/>
       <c r="AN50" s="30"/>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40">
       <c r="A51" s="2" t="s">
         <v>162</v>
       </c>
@@ -5026,25 +5116,27 @@
       <c r="AD51" s="28"/>
       <c r="AE51" s="28"/>
       <c r="AF51" s="28"/>
-      <c r="AG51" s="28"/>
+      <c r="AG51" s="28">
+        <v>50</v>
+      </c>
       <c r="AH51" s="28"/>
       <c r="AI51" s="28"/>
       <c r="AJ51" s="30">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="AK51" s="30">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AK51" s="30">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL51" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM51" s="30"/>
       <c r="AN51" s="30"/>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40">
       <c r="A52" s="18" t="s">
         <v>166</v>
       </c>
@@ -5089,25 +5181,27 @@
       <c r="AD52" s="28"/>
       <c r="AE52" s="28"/>
       <c r="AF52" s="28"/>
-      <c r="AG52" s="28"/>
+      <c r="AG52" s="28">
+        <v>50</v>
+      </c>
       <c r="AH52" s="28"/>
       <c r="AI52" s="28"/>
       <c r="AJ52" s="30">
+        <f t="shared" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="AK52" s="30">
         <f t="shared" si="7"/>
-        <v>45</v>
-      </c>
-      <c r="AK52" s="30">
-        <f t="shared" si="8"/>
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="AL52" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM52" s="30"/>
       <c r="AN52" s="30"/>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40">
       <c r="A53" s="18" t="s">
         <v>225</v>
       </c>
@@ -5150,25 +5244,27 @@
       <c r="AD53" s="28"/>
       <c r="AE53" s="28"/>
       <c r="AF53" s="28"/>
-      <c r="AG53" s="28"/>
+      <c r="AG53" s="28">
+        <v>50</v>
+      </c>
       <c r="AH53" s="28"/>
       <c r="AI53" s="28"/>
       <c r="AJ53" s="30">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="AK53" s="30">
         <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="AK53" s="30">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AL53" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM53" s="30"/>
       <c r="AN53" s="30"/>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40">
       <c r="A54" s="18" t="s">
         <v>169</v>
       </c>
@@ -5213,25 +5309,27 @@
       <c r="AD54" s="28"/>
       <c r="AE54" s="28"/>
       <c r="AF54" s="28"/>
-      <c r="AG54" s="28"/>
+      <c r="AG54" s="28">
+        <v>70</v>
+      </c>
       <c r="AH54" s="28"/>
       <c r="AI54" s="28"/>
       <c r="AJ54" s="30">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="AK54" s="30">
         <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-      <c r="AK54" s="30">
-        <f t="shared" si="8"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AL54" s="30">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AM54" s="30"/>
       <c r="AN54" s="30"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40">
       <c r="A55" s="18" t="s">
         <v>172</v>
       </c>
@@ -5276,25 +5374,27 @@
       <c r="AD55" s="28"/>
       <c r="AE55" s="28"/>
       <c r="AF55" s="28"/>
-      <c r="AG55" s="28"/>
+      <c r="AG55" s="28">
+        <v>70</v>
+      </c>
       <c r="AH55" s="28"/>
       <c r="AI55" s="28"/>
       <c r="AJ55" s="30">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="AK55" s="30">
         <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-      <c r="AK55" s="30">
-        <f t="shared" si="8"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AL55" s="30">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AM55" s="30"/>
       <c r="AN55" s="30"/>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40">
       <c r="A56" s="18" t="s">
         <v>172</v>
       </c>
@@ -5339,25 +5439,27 @@
       <c r="AD56" s="28"/>
       <c r="AE56" s="28"/>
       <c r="AF56" s="28"/>
-      <c r="AG56" s="28"/>
+      <c r="AG56" s="28">
+        <v>70</v>
+      </c>
       <c r="AH56" s="28"/>
       <c r="AI56" s="28"/>
       <c r="AJ56" s="30">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="AK56" s="30">
         <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-      <c r="AK56" s="30">
-        <f t="shared" si="8"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AL56" s="30">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AM56" s="30"/>
       <c r="AN56" s="30"/>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40">
       <c r="A57" s="18" t="s">
         <v>175</v>
       </c>
@@ -5400,25 +5502,27 @@
       <c r="AD57" s="28"/>
       <c r="AE57" s="28"/>
       <c r="AF57" s="28"/>
-      <c r="AG57" s="28"/>
+      <c r="AG57" s="28">
+        <v>50</v>
+      </c>
       <c r="AH57" s="28"/>
       <c r="AI57" s="28"/>
       <c r="AJ57" s="30">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="AK57" s="30">
         <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="AK57" s="30">
-        <f t="shared" si="8"/>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="AL57" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM57" s="30"/>
       <c r="AN57" s="30"/>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40">
       <c r="A58" s="18"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -5455,21 +5559,21 @@
       <c r="AH58" s="28"/>
       <c r="AI58" s="28"/>
       <c r="AJ58" s="30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK58" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AK58" s="30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
       <c r="AL58" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="AL35:AL61" si="8">IF(AK58&gt;100,AK58-100,0)</f>
         <v>0</v>
       </c>
       <c r="AM58" s="30"/>
       <c r="AN58" s="30"/>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40">
       <c r="A59" s="18"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
@@ -5506,21 +5610,21 @@
       <c r="AH59" s="28"/>
       <c r="AI59" s="28"/>
       <c r="AJ59" s="30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK59" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AK59" s="30">
+      <c r="AL59" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AL59" s="30">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="AM59" s="30"/>
       <c r="AN59" s="30"/>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40">
       <c r="A60" s="18"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
@@ -5557,21 +5661,21 @@
       <c r="AH60" s="28"/>
       <c r="AI60" s="28"/>
       <c r="AJ60" s="30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK60" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AK60" s="30">
+      <c r="AL60" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AL60" s="30">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="AM60" s="30"/>
       <c r="AN60" s="30"/>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40">
       <c r="A61" s="18"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
@@ -5608,15 +5712,15 @@
       <c r="AH61" s="28"/>
       <c r="AI61" s="28"/>
       <c r="AJ61" s="30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK61" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AK61" s="30">
+      <c r="AL61" s="30">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AL61" s="30">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM61" s="30"/>
@@ -5687,7 +5791,7 @@
       <selection pane="topRight" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
@@ -5697,7 +5801,7 @@
     <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" ht="15" customHeight="1">
       <c r="A1" s="57" t="s">
         <v>48</v>
       </c>
@@ -5751,7 +5855,7 @@
       <c r="AM1" s="63"/>
       <c r="AN1" s="63"/>
     </row>
-    <row r="2" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" ht="15">
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
@@ -5833,7 +5937,7 @@
       <c r="AM2" s="32"/>
       <c r="AN2" s="32"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40">
       <c r="A3" s="46" t="s">
         <v>183</v>
       </c>
@@ -5887,7 +5991,7 @@
       <c r="AM3" s="35"/>
       <c r="AN3" s="35"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40">
       <c r="A4" s="2" t="s">
         <v>71</v>
       </c>
@@ -5937,7 +6041,7 @@
       <c r="AM4" s="35"/>
       <c r="AN4" s="35"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40">
       <c r="A5" s="18" t="s">
         <v>227</v>
       </c>
@@ -5989,7 +6093,7 @@
       <c r="AM5" s="35"/>
       <c r="AN5" s="35"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40">
       <c r="A6" s="18" t="s">
         <v>219</v>
       </c>
@@ -6041,7 +6145,7 @@
       <c r="AM6" s="35"/>
       <c r="AN6" s="35"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>74</v>
@@ -6093,7 +6197,7 @@
       <c r="AM7" s="35"/>
       <c r="AN7" s="35"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40">
       <c r="A8" s="7" t="s">
         <v>76</v>
       </c>
@@ -6147,7 +6251,7 @@
       <c r="AM8" s="35"/>
       <c r="AN8" s="35"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40">
       <c r="A9" s="18" t="s">
         <v>222</v>
       </c>
@@ -6199,7 +6303,7 @@
       <c r="AM9" s="35"/>
       <c r="AN9" s="35"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40">
       <c r="A10" s="18" t="s">
         <v>80</v>
       </c>
@@ -6253,7 +6357,7 @@
       <c r="AM10" s="35"/>
       <c r="AN10" s="35"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40">
       <c r="A11" s="18"/>
       <c r="B11" s="18" t="s">
         <v>236</v>
@@ -6303,7 +6407,7 @@
       <c r="AM11" s="35"/>
       <c r="AN11" s="35"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40">
       <c r="A12" s="18" t="s">
         <v>216</v>
       </c>
@@ -6357,7 +6461,7 @@
       <c r="AM12" s="35"/>
       <c r="AN12" s="35"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40">
       <c r="A13" s="18" t="s">
         <v>178</v>
       </c>
@@ -6411,7 +6515,7 @@
       <c r="AM13" s="35"/>
       <c r="AN13" s="35"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40">
       <c r="A14" s="18" t="s">
         <v>192</v>
       </c>
@@ -6465,7 +6569,7 @@
       <c r="AM14" s="35"/>
       <c r="AN14" s="35"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40">
       <c r="A15" s="2" t="s">
         <v>83</v>
       </c>
@@ -6519,7 +6623,7 @@
       <c r="AM15" s="35"/>
       <c r="AN15" s="35"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40">
       <c r="A16" s="18" t="s">
         <v>205</v>
       </c>
@@ -6571,7 +6675,7 @@
       <c r="AM16" s="35"/>
       <c r="AN16" s="35"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40">
       <c r="A17" s="18" t="s">
         <v>195</v>
       </c>
@@ -6623,7 +6727,7 @@
       <c r="AM17" s="35"/>
       <c r="AN17" s="35"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40">
       <c r="A18" s="2" t="s">
         <v>86</v>
       </c>
@@ -6677,7 +6781,7 @@
       <c r="AM18" s="35"/>
       <c r="AN18" s="35"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40">
       <c r="A19" s="18" t="s">
         <v>212</v>
       </c>
@@ -6729,7 +6833,7 @@
       <c r="AM19" s="35"/>
       <c r="AN19" s="35"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40">
       <c r="A20" s="18" t="s">
         <v>89</v>
       </c>
@@ -6783,7 +6887,7 @@
       <c r="AM20" s="35"/>
       <c r="AN20" s="35"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40">
       <c r="A21" s="18" t="s">
         <v>202</v>
       </c>
@@ -6837,7 +6941,7 @@
       <c r="AM21" s="35"/>
       <c r="AN21" s="35"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40">
       <c r="A22" s="2" t="s">
         <v>92</v>
       </c>
@@ -6889,7 +6993,7 @@
       <c r="AM22" s="35"/>
       <c r="AN22" s="35"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40">
       <c r="A23" s="2" t="s">
         <v>96</v>
       </c>
@@ -6941,7 +7045,7 @@
       <c r="AM23" s="35"/>
       <c r="AN23" s="35"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40">
       <c r="A24" s="2" t="s">
         <v>99</v>
       </c>
@@ -6993,7 +7097,7 @@
       <c r="AM24" s="35"/>
       <c r="AN24" s="35"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40">
       <c r="A25" s="6" t="s">
         <v>102</v>
       </c>
@@ -7047,7 +7151,7 @@
       <c r="AM25" s="35"/>
       <c r="AN25" s="35"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40">
       <c r="A26" s="18" t="s">
         <v>105</v>
       </c>
@@ -7101,7 +7205,7 @@
       <c r="AM26" s="35"/>
       <c r="AN26" s="35"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40">
       <c r="A27" s="18" t="s">
         <v>68</v>
       </c>
@@ -7153,7 +7257,7 @@
       <c r="AM27" s="35"/>
       <c r="AN27" s="35"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40">
       <c r="A28" s="2" t="s">
         <v>108</v>
       </c>
@@ -7207,7 +7311,7 @@
       <c r="AM28" s="35"/>
       <c r="AN28" s="35"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40">
       <c r="A29" s="2" t="s">
         <v>111</v>
       </c>
@@ -7257,7 +7361,7 @@
       <c r="AM29" s="35"/>
       <c r="AN29" s="35"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40">
       <c r="A30" s="2" t="s">
         <v>114</v>
       </c>
@@ -7311,7 +7415,7 @@
       <c r="AM30" s="35"/>
       <c r="AN30" s="35"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40">
       <c r="A31" s="2" t="s">
         <v>117</v>
       </c>
@@ -7365,7 +7469,7 @@
       <c r="AM31" s="35"/>
       <c r="AN31" s="35"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40">
       <c r="A32" s="2" t="s">
         <v>120</v>
       </c>
@@ -7417,7 +7521,7 @@
       <c r="AM32" s="35"/>
       <c r="AN32" s="35"/>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40">
       <c r="A33" s="18" t="s">
         <v>186</v>
       </c>
@@ -7469,7 +7573,7 @@
       <c r="AM33" s="35"/>
       <c r="AN33" s="35"/>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40">
       <c r="A34" s="2" t="s">
         <v>123</v>
       </c>
@@ -7523,7 +7627,7 @@
       <c r="AM34" s="35"/>
       <c r="AN34" s="35"/>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40">
       <c r="A35" s="2" t="s">
         <v>126</v>
       </c>
@@ -7575,7 +7679,7 @@
       <c r="AM35" s="35"/>
       <c r="AN35" s="35"/>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40">
       <c r="A36" s="18" t="s">
         <v>209</v>
       </c>
@@ -7627,7 +7731,7 @@
       <c r="AM36" s="35"/>
       <c r="AN36" s="35"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40">
       <c r="A37" s="2" t="s">
         <v>130</v>
       </c>
@@ -7681,7 +7785,7 @@
       <c r="AM37" s="35"/>
       <c r="AN37" s="35"/>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40">
       <c r="A38" s="7" t="s">
         <v>233</v>
       </c>
@@ -7735,7 +7839,7 @@
       <c r="AM38" s="35"/>
       <c r="AN38" s="35"/>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40">
       <c r="A39" s="18" t="s">
         <v>135</v>
       </c>
@@ -7789,7 +7893,7 @@
       <c r="AM39" s="35"/>
       <c r="AN39" s="35"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40">
       <c r="A40" s="18" t="s">
         <v>230</v>
       </c>
@@ -7839,7 +7943,7 @@
       <c r="AM40" s="35"/>
       <c r="AN40" s="35"/>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40">
       <c r="A41" s="2" t="s">
         <v>138</v>
       </c>
@@ -7893,7 +7997,7 @@
       <c r="AM41" s="35"/>
       <c r="AN41" s="35"/>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40">
       <c r="A42" s="18" t="s">
         <v>198</v>
       </c>
@@ -7945,7 +8049,7 @@
       <c r="AM42" s="35"/>
       <c r="AN42" s="35"/>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40">
       <c r="A43" s="18" t="s">
         <v>141</v>
       </c>
@@ -7999,7 +8103,7 @@
       <c r="AM43" s="35"/>
       <c r="AN43" s="35"/>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40">
       <c r="A44" s="18" t="s">
         <v>144</v>
       </c>
@@ -8053,7 +8157,7 @@
       <c r="AM44" s="35"/>
       <c r="AN44" s="35"/>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40">
       <c r="A45" s="2" t="s">
         <v>147</v>
       </c>
@@ -8107,7 +8211,7 @@
       <c r="AM45" s="35"/>
       <c r="AN45" s="35"/>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40">
       <c r="A46" s="18" t="s">
         <v>150</v>
       </c>
@@ -8161,7 +8265,7 @@
       <c r="AM46" s="35"/>
       <c r="AN46" s="35"/>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40">
       <c r="A47" s="2" t="s">
         <v>153</v>
       </c>
@@ -8215,7 +8319,7 @@
       <c r="AM47" s="35"/>
       <c r="AN47" s="35"/>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40">
       <c r="A48" s="2" t="s">
         <v>156</v>
       </c>
@@ -8267,7 +8371,7 @@
       <c r="AM48" s="35"/>
       <c r="AN48" s="35"/>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40">
       <c r="A49" s="2" t="s">
         <v>159</v>
       </c>
@@ -8321,7 +8425,7 @@
       <c r="AM49" s="35"/>
       <c r="AN49" s="35"/>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40">
       <c r="A50" s="18" t="s">
         <v>189</v>
       </c>
@@ -8373,7 +8477,7 @@
       <c r="AM50" s="35"/>
       <c r="AN50" s="35"/>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40">
       <c r="A51" s="2" t="s">
         <v>162</v>
       </c>
@@ -8425,7 +8529,7 @@
       <c r="AM51" s="35"/>
       <c r="AN51" s="35"/>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40">
       <c r="A52" s="18" t="s">
         <v>166</v>
       </c>
@@ -8479,7 +8583,7 @@
       <c r="AM52" s="35"/>
       <c r="AN52" s="35"/>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40">
       <c r="A53" s="18" t="s">
         <v>225</v>
       </c>
@@ -8531,7 +8635,7 @@
       <c r="AM53" s="35"/>
       <c r="AN53" s="35"/>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40">
       <c r="A54" s="18" t="s">
         <v>169</v>
       </c>
@@ -8583,7 +8687,7 @@
       <c r="AM54" s="35"/>
       <c r="AN54" s="35"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40">
       <c r="A55" s="18" t="s">
         <v>172</v>
       </c>
@@ -8637,7 +8741,7 @@
       <c r="AM55" s="35"/>
       <c r="AN55" s="35"/>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40">
       <c r="A56" s="18" t="s">
         <v>172</v>
       </c>
@@ -8691,7 +8795,7 @@
       <c r="AM56" s="35"/>
       <c r="AN56" s="35"/>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40">
       <c r="A57" s="18" t="s">
         <v>175</v>
       </c>
@@ -8745,7 +8849,7 @@
       <c r="AM57" s="35"/>
       <c r="AN57" s="35"/>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40">
       <c r="A58" s="18"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -8787,7 +8891,7 @@
       <c r="AM58" s="35"/>
       <c r="AN58" s="35"/>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40">
       <c r="A59" s="18"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
@@ -8829,7 +8933,7 @@
       <c r="AM59" s="35"/>
       <c r="AN59" s="35"/>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40">
       <c r="A60" s="18"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
@@ -8871,7 +8975,7 @@
       <c r="AM60" s="35"/>
       <c r="AN60" s="35"/>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40">
       <c r="A61" s="18"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
@@ -8913,7 +9017,7 @@
       <c r="AM61" s="35"/>
       <c r="AN61" s="35"/>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:40">
       <c r="A62" s="18"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
@@ -9012,13 +9116,13 @@
       <selection activeCell="A37" sqref="A37:C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="46" t="s">
         <v>172</v>
       </c>
@@ -9029,7 +9133,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>117</v>
       </c>
@@ -9040,7 +9144,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>74</v>
@@ -9049,7 +9153,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>92</v>
       </c>
@@ -9060,7 +9164,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>138</v>
       </c>
@@ -9071,7 +9175,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="18" t="s">
         <v>183</v>
       </c>
@@ -9082,7 +9186,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="18" t="s">
         <v>216</v>
       </c>
@@ -9093,7 +9197,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="18" t="s">
         <v>219</v>
       </c>
@@ -9104,7 +9208,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="18" t="s">
         <v>212</v>
       </c>
@@ -9115,7 +9219,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>120</v>
       </c>
@@ -9126,7 +9230,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="18" t="s">
         <v>202</v>
       </c>
@@ -9137,7 +9241,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>108</v>
       </c>
@@ -9148,7 +9252,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>130</v>
       </c>
@@ -9159,7 +9263,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="18" t="s">
         <v>150</v>
       </c>
@@ -9170,7 +9274,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>159</v>
       </c>
@@ -9181,7 +9285,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="18" t="s">
         <v>195</v>
       </c>
@@ -9192,7 +9296,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="18" t="s">
         <v>209</v>
       </c>
@@ -9203,7 +9307,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="18" t="s">
         <v>189</v>
       </c>
@@ -9214,7 +9318,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="18" t="s">
         <v>225</v>
       </c>
@@ -9225,7 +9329,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="18" t="s">
         <v>205</v>
       </c>
@@ -9236,7 +9340,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="18" t="s">
         <v>89</v>
       </c>
@@ -9247,7 +9351,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="18" t="s">
         <v>105</v>
       </c>
@@ -9258,7 +9362,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
         <v>114</v>
       </c>
@@ -9269,7 +9373,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>126</v>
       </c>
@@ -9280,7 +9384,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="18" t="s">
         <v>135</v>
       </c>
@@ -9291,7 +9395,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="18" t="s">
         <v>175</v>
       </c>
@@ -9302,7 +9406,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="18" t="s">
         <v>227</v>
       </c>
@@ -9313,7 +9417,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="7" t="s">
         <v>233</v>
       </c>
@@ -9324,7 +9428,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="18" t="s">
         <v>222</v>
       </c>
@@ -9335,7 +9439,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="18" t="s">
         <v>80</v>
       </c>
@@ -9346,7 +9450,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="18" t="s">
         <v>144</v>
       </c>
@@ -9357,7 +9461,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
         <v>147</v>
       </c>
@@ -9368,7 +9472,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
         <v>153</v>
       </c>
@@ -9379,7 +9483,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
         <v>156</v>
       </c>
@@ -9390,7 +9494,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
         <v>162</v>
       </c>
@@ -9401,7 +9505,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="18" t="s">
         <v>186</v>
       </c>
@@ -9412,7 +9516,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="18" t="s">
         <v>192</v>
       </c>
@@ -9423,7 +9527,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
@@ -9434,7 +9538,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="18" t="s">
         <v>198</v>
       </c>
@@ -9445,7 +9549,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="18"/>
       <c r="B41" s="19" t="s">
         <v>236</v>
@@ -9454,7 +9558,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
         <v>86</v>
       </c>
@@ -9465,7 +9569,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="18" t="s">
         <v>68</v>
       </c>
@@ -9476,7 +9580,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="18" t="s">
         <v>230</v>
       </c>
@@ -9487,7 +9591,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="18" t="s">
         <v>169</v>
       </c>
@@ -9498,7 +9602,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="18" t="s">
         <v>141</v>
       </c>
@@ -9509,7 +9613,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="18" t="s">
         <v>172</v>
       </c>
@@ -9520,7 +9624,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
         <v>102</v>
       </c>
@@ -9531,7 +9635,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
         <v>99</v>
       </c>
@@ -9542,7 +9646,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="18" t="s">
         <v>166</v>
       </c>
@@ -9553,7 +9657,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
         <v>96</v>
       </c>
@@ -9564,7 +9668,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="7" t="s">
         <v>76</v>
       </c>
@@ -9575,7 +9679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="18" t="s">
         <v>178</v>
       </c>
@@ -9586,7 +9690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
         <v>123</v>
       </c>
@@ -9597,7 +9701,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
         <v>71</v>
       </c>
@@ -9606,7 +9710,7 @@
       </c>
       <c r="C55" s="52"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
         <v>111</v>
       </c>
@@ -9671,12 +9775,12 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="18" t="s">
         <v>178</v>
       </c>
@@ -9691,7 +9795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="18" t="s">
         <v>172</v>
       </c>
@@ -9706,7 +9810,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="18" t="s">
         <v>183</v>
       </c>
@@ -9721,7 +9825,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="18" t="s">
         <v>186</v>
       </c>
@@ -9736,7 +9840,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="18" t="s">
         <v>189</v>
       </c>
@@ -9751,7 +9855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="18" t="s">
         <v>192</v>
       </c>
@@ -9766,7 +9870,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="18" t="s">
         <v>195</v>
       </c>
@@ -9781,7 +9885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="18" t="s">
         <v>198</v>
       </c>
@@ -9796,7 +9900,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="18" t="s">
         <v>202</v>
       </c>
@@ -9811,7 +9915,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="18" t="s">
         <v>205</v>
       </c>
@@ -9826,7 +9930,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="18" t="s">
         <v>68</v>
       </c>
@@ -9841,7 +9945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="18" t="s">
         <v>209</v>
       </c>
@@ -9856,7 +9960,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="18" t="s">
         <v>212</v>
       </c>
@@ -9871,7 +9975,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="18" t="s">
         <v>216</v>
       </c>
@@ -9886,7 +9990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="18" t="s">
         <v>219</v>
       </c>
@@ -9901,7 +10005,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="18" t="s">
         <v>222</v>
       </c>
@@ -9916,7 +10020,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="18" t="s">
         <v>225</v>
       </c>
@@ -9931,7 +10035,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="18" t="s">
         <v>227</v>
       </c>
@@ -9946,7 +10050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="18" t="s">
         <v>230</v>
       </c>

--- a/COSC 60 - IT 2D/POINTS - IT 2D.xlsx
+++ b/COSC 60 - IT 2D/POINTS - IT 2D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\WORK\CvSU\2017-2018 Second Semester\Grading-Sheets-Second-Sem-2017-2018\COSC 60 - IT 2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB08D50-5377-4184-8ABF-AA6122F14E55}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC4161B-3705-4342-84C3-604BC358784F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="241">
   <si>
     <t>C</t>
   </si>
@@ -737,6 +737,15 @@
   </si>
   <si>
     <t>Kimberly</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Excess</t>
+  </si>
+  <si>
+    <t>Items</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1081,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1273,6 +1282,9 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="60% - Accent1" xfId="2" builtinId="32"/>
@@ -1838,11 +1850,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN61"/>
+  <dimension ref="A1:AQ62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL10" sqref="AL10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="AM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AN58" sqref="AN58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1855,7 +1867,7 @@
     <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15">
+    <row r="1" spans="1:43" ht="15">
       <c r="A1" s="57" t="s">
         <v>48</v>
       </c>
@@ -1906,8 +1918,15 @@
       <c r="AL1" s="56"/>
       <c r="AM1" s="56"/>
       <c r="AN1" s="56"/>
-    </row>
-    <row r="2" spans="1:40" ht="15">
+      <c r="AO1" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP1" s="73">
+        <v>80</v>
+      </c>
+      <c r="AQ1" s="74"/>
+    </row>
+    <row r="2" spans="1:43" ht="15">
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
@@ -2026,8 +2045,17 @@
       <c r="AN2" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:40">
+      <c r="AO2" s="73" t="s">
+        <v>238</v>
+      </c>
+      <c r="AP2" s="73" t="s">
+        <v>239</v>
+      </c>
+      <c r="AQ2" s="73" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43">
       <c r="A3" s="46" t="s">
         <v>183</v>
       </c>
@@ -2090,9 +2118,22 @@
         <v>0</v>
       </c>
       <c r="AM3" s="30"/>
-      <c r="AN3" s="30"/>
-    </row>
-    <row r="4" spans="1:40">
+      <c r="AN3" s="30">
+        <v>63</v>
+      </c>
+      <c r="AO3" s="75">
+        <f t="shared" ref="AO3:AO46" si="0">IF(AN3+AL3&gt;AQ3,AQ3,AN3+AL3)</f>
+        <v>63</v>
+      </c>
+      <c r="AP3" s="75">
+        <f t="shared" ref="AP3:AP8" si="1">IF(AN3+AL3&gt;AQ3,AL3+AN3-AQ3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43">
       <c r="A4" s="2" t="s">
         <v>71</v>
       </c>
@@ -2137,21 +2178,32 @@
       <c r="AH4" s="28"/>
       <c r="AI4" s="28"/>
       <c r="AJ4" s="30">
-        <f t="shared" ref="AJ4:AJ20" si="0">SUM(F4:AI4)</f>
+        <f t="shared" ref="AJ4:AJ20" si="2">SUM(F4:AI4)</f>
         <v>0</v>
       </c>
       <c r="AK4" s="30">
-        <f t="shared" ref="AK4:AK23" si="1">IF(AJ4&gt;100,AJ4-(AJ4-100),AJ4)</f>
+        <f t="shared" ref="AK4:AK23" si="3">IF(AJ4&gt;100,AJ4-(AJ4-100),AJ4)</f>
         <v>0</v>
       </c>
       <c r="AL4" s="30">
-        <f t="shared" ref="AL4:AL57" si="2">IF(AJ4&gt;100,(AJ4-100)/10,0)</f>
+        <f t="shared" ref="AL4:AL57" si="4">IF(AJ4&gt;100,(AJ4-100)/10,0)</f>
         <v>0</v>
       </c>
       <c r="AM4" s="30"/>
       <c r="AN4" s="30"/>
-    </row>
-    <row r="5" spans="1:40">
+      <c r="AO4" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP4" s="75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43">
       <c r="A5" s="18" t="s">
         <v>227</v>
       </c>
@@ -2200,21 +2252,34 @@
       <c r="AH5" s="28"/>
       <c r="AI5" s="28"/>
       <c r="AJ5" s="30">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="AK5" s="30">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="AL5" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM5" s="30"/>
+      <c r="AN5" s="30">
+        <v>68</v>
+      </c>
+      <c r="AO5" s="75">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="AK5" s="30">
+        <v>68</v>
+      </c>
+      <c r="AP5" s="75">
         <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="AL5" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM5" s="30"/>
-      <c r="AN5" s="30"/>
-    </row>
-    <row r="6" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43">
       <c r="A6" s="18" t="s">
         <v>219</v>
       </c>
@@ -2263,21 +2328,34 @@
       <c r="AH6" s="28"/>
       <c r="AI6" s="28"/>
       <c r="AJ6" s="30">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="AK6" s="30">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="AL6" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="30">
+        <v>71</v>
+      </c>
+      <c r="AO6" s="75">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="AK6" s="30">
+        <v>71</v>
+      </c>
+      <c r="AP6" s="75">
         <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="AL6" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM6" s="30"/>
-      <c r="AN6" s="30"/>
-    </row>
-    <row r="7" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>74</v>
@@ -2326,21 +2404,34 @@
       <c r="AH7" s="28"/>
       <c r="AI7" s="28"/>
       <c r="AJ7" s="30">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="AK7" s="30">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="AL7" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM7" s="30"/>
+      <c r="AN7" s="30">
+        <v>75</v>
+      </c>
+      <c r="AO7" s="75">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="AK7" s="30">
+        <v>75</v>
+      </c>
+      <c r="AP7" s="75">
         <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="AL7" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM7" s="30"/>
-      <c r="AN7" s="30"/>
-    </row>
-    <row r="8" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43">
       <c r="A8" s="7" t="s">
         <v>76</v>
       </c>
@@ -2391,21 +2482,34 @@
       <c r="AH8" s="28"/>
       <c r="AI8" s="28"/>
       <c r="AJ8" s="30">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="AK8" s="30">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="AL8" s="30">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="30">
+        <v>51</v>
+      </c>
+      <c r="AO8" s="75">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="AK8" s="30">
+        <v>53</v>
+      </c>
+      <c r="AP8" s="75">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="AL8" s="30">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="AM8" s="30"/>
-      <c r="AN8" s="30"/>
-    </row>
-    <row r="9" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43">
       <c r="A9" s="18" t="s">
         <v>222</v>
       </c>
@@ -2454,21 +2558,33 @@
       <c r="AH9" s="28"/>
       <c r="AI9" s="28"/>
       <c r="AJ9" s="30">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="AK9" s="30">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="AL9" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30">
+        <v>68</v>
+      </c>
+      <c r="AO9" s="75">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="AK9" s="30">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="AL9" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM9" s="30"/>
-      <c r="AN9" s="30"/>
-    </row>
-    <row r="10" spans="1:40">
+        <v>68</v>
+      </c>
+      <c r="AP9" s="75">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43">
       <c r="A10" s="18" t="s">
         <v>80</v>
       </c>
@@ -2519,21 +2635,34 @@
       <c r="AH10" s="28"/>
       <c r="AI10" s="28"/>
       <c r="AJ10" s="30">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="AK10" s="30">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="AL10" s="30">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="AM10" s="30"/>
+      <c r="AN10" s="30">
+        <v>62</v>
+      </c>
+      <c r="AO10" s="75">
         <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="AK10" s="30">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="AL10" s="30">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="AM10" s="30"/>
-      <c r="AN10" s="30"/>
-    </row>
-    <row r="11" spans="1:40">
+        <v>62.5</v>
+      </c>
+      <c r="AP10" s="75">
+        <f t="shared" ref="AP10:AP46" si="5">IF(AN10+AL10&gt;AQ10,AL10+AN10-AQ10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43">
       <c r="A11" s="18"/>
       <c r="B11" s="18" t="s">
         <v>236</v>
@@ -2578,21 +2707,34 @@
       <c r="AH11" s="28"/>
       <c r="AI11" s="28"/>
       <c r="AJ11" s="30">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="AK11" s="30">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="AL11" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="30"/>
+      <c r="AN11" s="30">
+        <v>75</v>
+      </c>
+      <c r="AO11" s="75">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="AK11" s="30">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="AL11" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM11" s="30"/>
-      <c r="AN11" s="30"/>
-    </row>
-    <row r="12" spans="1:40">
+        <v>75</v>
+      </c>
+      <c r="AP11" s="75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43">
       <c r="A12" s="18" t="s">
         <v>216</v>
       </c>
@@ -2639,21 +2781,34 @@
       <c r="AH12" s="28"/>
       <c r="AI12" s="28"/>
       <c r="AJ12" s="30">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="AK12" s="30">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="AL12" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="30"/>
+      <c r="AN12" s="30">
+        <v>65</v>
+      </c>
+      <c r="AO12" s="75">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="AK12" s="30">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="AL12" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM12" s="30"/>
-      <c r="AN12" s="30"/>
-    </row>
-    <row r="13" spans="1:40">
+        <v>65</v>
+      </c>
+      <c r="AP12" s="75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43">
       <c r="A13" s="18" t="s">
         <v>178</v>
       </c>
@@ -2704,21 +2859,32 @@
       <c r="AH13" s="28"/>
       <c r="AI13" s="28"/>
       <c r="AJ13" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="AK13" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="AL13" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM13" s="30"/>
       <c r="AN13" s="30"/>
-    </row>
-    <row r="14" spans="1:40">
+      <c r="AO13" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP13" s="75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43">
       <c r="A14" s="18" t="s">
         <v>192</v>
       </c>
@@ -2769,21 +2935,34 @@
       <c r="AH14" s="28"/>
       <c r="AI14" s="28"/>
       <c r="AJ14" s="30">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="AK14" s="30">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="AL14" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM14" s="30"/>
+      <c r="AN14" s="30">
+        <v>68</v>
+      </c>
+      <c r="AO14" s="75">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="AK14" s="30">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="AL14" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM14" s="30"/>
-      <c r="AN14" s="30"/>
-    </row>
-    <row r="15" spans="1:40">
+        <v>68</v>
+      </c>
+      <c r="AP14" s="75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43">
       <c r="A15" s="2" t="s">
         <v>83</v>
       </c>
@@ -2830,21 +3009,34 @@
       <c r="AH15" s="28"/>
       <c r="AI15" s="28"/>
       <c r="AJ15" s="30">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="AK15" s="30">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="AL15" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="30"/>
+      <c r="AN15" s="30">
+        <v>53</v>
+      </c>
+      <c r="AO15" s="75">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="AK15" s="30">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="AL15" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM15" s="30"/>
-      <c r="AN15" s="30"/>
-    </row>
-    <row r="16" spans="1:40">
+        <v>53</v>
+      </c>
+      <c r="AP15" s="75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43">
       <c r="A16" s="18" t="s">
         <v>205</v>
       </c>
@@ -2891,21 +3083,34 @@
       <c r="AH16" s="28"/>
       <c r="AI16" s="28"/>
       <c r="AJ16" s="30">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="AK16" s="30">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="AL16" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM16" s="30"/>
+      <c r="AN16" s="30">
+        <v>73</v>
+      </c>
+      <c r="AO16" s="75">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="AK16" s="30">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="AL16" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM16" s="30"/>
-      <c r="AN16" s="30"/>
-    </row>
-    <row r="17" spans="1:40">
+        <v>73</v>
+      </c>
+      <c r="AP16" s="75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43">
       <c r="A17" s="18" t="s">
         <v>195</v>
       </c>
@@ -2956,21 +3161,34 @@
       <c r="AH17" s="28"/>
       <c r="AI17" s="28"/>
       <c r="AJ17" s="30">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="AK17" s="30">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="AL17" s="30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AM17" s="30"/>
+      <c r="AN17" s="30">
+        <v>75</v>
+      </c>
+      <c r="AO17" s="75">
         <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="AK17" s="30">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="AL17" s="30">
-        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="AP17" s="75">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AM17" s="30"/>
-      <c r="AN17" s="30"/>
-    </row>
-    <row r="18" spans="1:40">
+      <c r="AQ17" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43">
       <c r="A18" s="2" t="s">
         <v>86</v>
       </c>
@@ -3019,21 +3237,34 @@
       <c r="AH18" s="28"/>
       <c r="AI18" s="28"/>
       <c r="AJ18" s="30">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="AK18" s="30">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="AL18" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM18" s="30"/>
+      <c r="AN18" s="30">
+        <v>68</v>
+      </c>
+      <c r="AO18" s="75">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="AK18" s="30">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="AL18" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM18" s="30"/>
-      <c r="AN18" s="30"/>
-    </row>
-    <row r="19" spans="1:40">
+        <v>68</v>
+      </c>
+      <c r="AP18" s="75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43">
       <c r="A19" s="18" t="s">
         <v>212</v>
       </c>
@@ -3080,21 +3311,34 @@
       <c r="AH19" s="28"/>
       <c r="AI19" s="28"/>
       <c r="AJ19" s="30">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="AK19" s="30">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="AL19" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM19" s="30"/>
+      <c r="AN19" s="30">
+        <v>56</v>
+      </c>
+      <c r="AO19" s="75">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="AK19" s="30">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="AL19" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM19" s="30"/>
-      <c r="AN19" s="30"/>
-    </row>
-    <row r="20" spans="1:40">
+        <v>56</v>
+      </c>
+      <c r="AP19" s="75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43">
       <c r="A20" s="18" t="s">
         <v>89</v>
       </c>
@@ -3145,21 +3389,34 @@
       <c r="AH20" s="28"/>
       <c r="AI20" s="28"/>
       <c r="AJ20" s="30">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="AK20" s="30">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="AL20" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM20" s="30"/>
+      <c r="AN20" s="30">
+        <v>65</v>
+      </c>
+      <c r="AO20" s="75">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="AK20" s="30">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="AL20" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM20" s="30"/>
-      <c r="AN20" s="30"/>
-    </row>
-    <row r="21" spans="1:40">
+        <v>65</v>
+      </c>
+      <c r="AP20" s="75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43">
       <c r="A21" s="18" t="s">
         <v>202</v>
       </c>
@@ -3212,17 +3469,30 @@
         <v>80</v>
       </c>
       <c r="AK21" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="AL21" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM21" s="30"/>
-      <c r="AN21" s="30"/>
-    </row>
-    <row r="22" spans="1:40">
+      <c r="AN21" s="30">
+        <v>75</v>
+      </c>
+      <c r="AO21" s="75">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="AP21" s="75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43">
       <c r="A22" s="2" t="s">
         <v>92</v>
       </c>
@@ -3273,21 +3543,34 @@
       <c r="AH22" s="28"/>
       <c r="AI22" s="28"/>
       <c r="AJ22" s="30">
-        <f t="shared" ref="AJ22:AJ23" si="3">SUM(F22:AI22)</f>
+        <f t="shared" ref="AJ22:AJ23" si="6">SUM(F22:AI22)</f>
         <v>85</v>
       </c>
       <c r="AK22" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="AL22" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM22" s="30"/>
-      <c r="AN22" s="30"/>
-    </row>
-    <row r="23" spans="1:40">
+      <c r="AN22" s="30">
+        <v>65</v>
+      </c>
+      <c r="AO22" s="75">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="AP22" s="75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43">
       <c r="A23" s="2" t="s">
         <v>96</v>
       </c>
@@ -3338,21 +3621,34 @@
       <c r="AH23" s="28"/>
       <c r="AI23" s="28"/>
       <c r="AJ23" s="30">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="AK23" s="30">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="AK23" s="30">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="AL23" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM23" s="30"/>
-      <c r="AN23" s="30"/>
-    </row>
-    <row r="24" spans="1:40">
+      <c r="AN23" s="30">
+        <v>75</v>
+      </c>
+      <c r="AO23" s="75">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="AP23" s="75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43">
       <c r="A24" s="2" t="s">
         <v>99</v>
       </c>
@@ -3399,21 +3695,34 @@
       <c r="AH24" s="28"/>
       <c r="AI24" s="28"/>
       <c r="AJ24" s="30">
-        <f t="shared" ref="AJ24:AJ34" si="4">SUM(F24:AI24)</f>
+        <f t="shared" ref="AJ24:AJ34" si="7">SUM(F24:AI24)</f>
         <v>50</v>
       </c>
       <c r="AK24" s="30">
-        <f t="shared" ref="AK24:AK34" si="5">IF(AJ24&gt;100,AJ24-(AJ24-100),AJ24)</f>
+        <f t="shared" ref="AK24:AK34" si="8">IF(AJ24&gt;100,AJ24-(AJ24-100),AJ24)</f>
         <v>50</v>
       </c>
       <c r="AL24" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM24" s="30"/>
-      <c r="AN24" s="30"/>
-    </row>
-    <row r="25" spans="1:40">
+      <c r="AN24" s="30">
+        <v>65</v>
+      </c>
+      <c r="AO24" s="75">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="AP24" s="75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43">
       <c r="A25" s="6" t="s">
         <v>102</v>
       </c>
@@ -3462,21 +3771,34 @@
       <c r="AH25" s="28"/>
       <c r="AI25" s="28"/>
       <c r="AJ25" s="30">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="AK25" s="30">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="AL25" s="30">
         <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="AK25" s="30">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="30"/>
+      <c r="AN25" s="30">
+        <v>49</v>
+      </c>
+      <c r="AO25" s="75">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="AP25" s="75">
         <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-      <c r="AL25" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM25" s="30"/>
-      <c r="AN25" s="30"/>
-    </row>
-    <row r="26" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43">
       <c r="A26" s="18" t="s">
         <v>105</v>
       </c>
@@ -3527,21 +3849,34 @@
       <c r="AH26" s="28"/>
       <c r="AI26" s="28"/>
       <c r="AJ26" s="30">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="AK26" s="30">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AL26" s="30">
         <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="AK26" s="30">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="30"/>
+      <c r="AN26" s="30">
+        <v>65</v>
+      </c>
+      <c r="AO26" s="75">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="AP26" s="75">
         <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AL26" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM26" s="30"/>
-      <c r="AN26" s="30"/>
-    </row>
-    <row r="27" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43">
       <c r="A27" s="18" t="s">
         <v>68</v>
       </c>
@@ -3588,21 +3923,34 @@
       <c r="AH27" s="28"/>
       <c r="AI27" s="28"/>
       <c r="AJ27" s="30">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="AK27" s="30">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="AL27" s="30">
         <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="AK27" s="30">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="30"/>
+      <c r="AN27" s="30">
+        <v>68</v>
+      </c>
+      <c r="AO27" s="75">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="AP27" s="75">
         <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="AL27" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM27" s="30"/>
-      <c r="AN27" s="30"/>
-    </row>
-    <row r="28" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43">
       <c r="A28" s="2" t="s">
         <v>108</v>
       </c>
@@ -3651,21 +3999,34 @@
       <c r="AH28" s="28"/>
       <c r="AI28" s="28"/>
       <c r="AJ28" s="30">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="AK28" s="30">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="AL28" s="30">
         <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="AK28" s="30">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="30"/>
+      <c r="AN28" s="30">
+        <v>65</v>
+      </c>
+      <c r="AO28" s="75">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="AP28" s="75">
         <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-      <c r="AL28" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM28" s="30"/>
-      <c r="AN28" s="30"/>
-    </row>
-    <row r="29" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43">
       <c r="A29" s="2" t="s">
         <v>111</v>
       </c>
@@ -3710,21 +4071,32 @@
       <c r="AH29" s="28"/>
       <c r="AI29" s="28"/>
       <c r="AJ29" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK29" s="30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL29" s="30">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AK29" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AL29" s="30">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM29" s="30"/>
       <c r="AN29" s="30"/>
-    </row>
-    <row r="30" spans="1:40">
+      <c r="AO29" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP29" s="75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43">
       <c r="A30" s="2" t="s">
         <v>114</v>
       </c>
@@ -3777,21 +4149,34 @@
       <c r="AH30" s="28"/>
       <c r="AI30" s="28"/>
       <c r="AJ30" s="30">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="AK30" s="30">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AL30" s="30">
         <f t="shared" si="4"/>
-        <v>150</v>
-      </c>
-      <c r="AK30" s="30">
+        <v>5</v>
+      </c>
+      <c r="AM30" s="30"/>
+      <c r="AN30" s="30">
+        <v>68</v>
+      </c>
+      <c r="AO30" s="75">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="AP30" s="75">
         <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AL30" s="30">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AM30" s="30"/>
-      <c r="AN30" s="30"/>
-    </row>
-    <row r="31" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43">
       <c r="A31" s="2" t="s">
         <v>117</v>
       </c>
@@ -3844,21 +4229,34 @@
       <c r="AH31" s="28"/>
       <c r="AI31" s="28"/>
       <c r="AJ31" s="30">
+        <f t="shared" si="7"/>
+        <v>170</v>
+      </c>
+      <c r="AK31" s="30">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AL31" s="30">
         <f t="shared" si="4"/>
-        <v>170</v>
-      </c>
-      <c r="AK31" s="30">
+        <v>7</v>
+      </c>
+      <c r="AM31" s="30"/>
+      <c r="AN31" s="30">
+        <v>75</v>
+      </c>
+      <c r="AO31" s="75">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="AP31" s="75">
         <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AL31" s="30">
-        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AM31" s="30"/>
-      <c r="AN31" s="30"/>
-    </row>
-    <row r="32" spans="1:40">
+      <c r="AQ31" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43">
       <c r="A32" s="2" t="s">
         <v>120</v>
       </c>
@@ -3909,21 +4307,34 @@
       <c r="AH32" s="28"/>
       <c r="AI32" s="28"/>
       <c r="AJ32" s="30">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="AK32" s="30">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AL32" s="30">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="AK32" s="30">
+        <v>2</v>
+      </c>
+      <c r="AM32" s="30"/>
+      <c r="AN32" s="30">
+        <v>53</v>
+      </c>
+      <c r="AO32" s="75">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="AP32" s="75">
         <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AL32" s="30">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="AM32" s="30"/>
-      <c r="AN32" s="30"/>
-    </row>
-    <row r="33" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43">
       <c r="A33" s="18" t="s">
         <v>186</v>
       </c>
@@ -3974,21 +4385,34 @@
       <c r="AH33" s="28"/>
       <c r="AI33" s="28"/>
       <c r="AJ33" s="30">
+        <f t="shared" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="AK33" s="30">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AL33" s="30">
         <f t="shared" si="4"/>
-        <v>110</v>
-      </c>
-      <c r="AK33" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM33" s="30"/>
+      <c r="AN33" s="30">
+        <v>58</v>
+      </c>
+      <c r="AO33" s="75">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="AP33" s="75">
         <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AL33" s="30">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AM33" s="30"/>
-      <c r="AN33" s="30"/>
-    </row>
-    <row r="34" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43">
       <c r="A34" s="2" t="s">
         <v>123</v>
       </c>
@@ -4039,21 +4463,32 @@
       <c r="AH34" s="28"/>
       <c r="AI34" s="28"/>
       <c r="AJ34" s="30">
+        <f t="shared" si="7"/>
+        <v>105</v>
+      </c>
+      <c r="AK34" s="30">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AL34" s="30">
         <f t="shared" si="4"/>
-        <v>105</v>
-      </c>
-      <c r="AK34" s="30">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AL34" s="30">
-        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="AM34" s="30"/>
       <c r="AN34" s="30"/>
-    </row>
-    <row r="35" spans="1:40">
+      <c r="AO34" s="75">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="AP34" s="75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43">
       <c r="A35" s="2" t="s">
         <v>126</v>
       </c>
@@ -4104,21 +4539,34 @@
       <c r="AH35" s="28"/>
       <c r="AI35" s="28"/>
       <c r="AJ35" s="30">
-        <f t="shared" ref="AJ35:AJ61" si="6">SUM(F35:AI35)</f>
+        <f t="shared" ref="AJ35:AJ61" si="9">SUM(F35:AI35)</f>
         <v>85</v>
       </c>
       <c r="AK35" s="30">
-        <f t="shared" ref="AK35:AK61" si="7">IF(AJ35&gt;100,AJ35-(AJ35-100),AJ35)</f>
+        <f t="shared" ref="AK35:AK61" si="10">IF(AJ35&gt;100,AJ35-(AJ35-100),AJ35)</f>
         <v>85</v>
       </c>
       <c r="AL35" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM35" s="30"/>
-      <c r="AN35" s="30"/>
-    </row>
-    <row r="36" spans="1:40">
+      <c r="AN35" s="30">
+        <v>68</v>
+      </c>
+      <c r="AO35" s="75">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="AP35" s="75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43">
       <c r="A36" s="18" t="s">
         <v>209</v>
       </c>
@@ -4167,21 +4615,34 @@
       <c r="AH36" s="28"/>
       <c r="AI36" s="28"/>
       <c r="AJ36" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
       <c r="AK36" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
       <c r="AL36" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM36" s="30"/>
-      <c r="AN36" s="30"/>
-    </row>
-    <row r="37" spans="1:40">
+      <c r="AN36" s="30">
+        <v>70</v>
+      </c>
+      <c r="AO36" s="75">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="AP36" s="75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43">
       <c r="A37" s="2" t="s">
         <v>130</v>
       </c>
@@ -4232,21 +4693,34 @@
       <c r="AH37" s="28"/>
       <c r="AI37" s="28"/>
       <c r="AJ37" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>120</v>
       </c>
       <c r="AK37" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="AL37" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AM37" s="30"/>
-      <c r="AN37" s="30"/>
-    </row>
-    <row r="38" spans="1:40">
+      <c r="AN37" s="30">
+        <v>68</v>
+      </c>
+      <c r="AO37" s="75">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="AP37" s="75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43">
       <c r="A38" s="7" t="s">
         <v>233</v>
       </c>
@@ -4297,21 +4771,34 @@
       <c r="AH38" s="28"/>
       <c r="AI38" s="28"/>
       <c r="AJ38" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>130</v>
       </c>
       <c r="AK38" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="AL38" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AM38" s="30"/>
-      <c r="AN38" s="30"/>
-    </row>
-    <row r="39" spans="1:40">
+      <c r="AN38" s="30">
+        <v>56</v>
+      </c>
+      <c r="AO38" s="75">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="AP38" s="75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43">
       <c r="A39" s="18" t="s">
         <v>135</v>
       </c>
@@ -4362,21 +4849,32 @@
       <c r="AH39" s="28"/>
       <c r="AI39" s="28"/>
       <c r="AJ39" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="AK39" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="AL39" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM39" s="30"/>
       <c r="AN39" s="30"/>
-    </row>
-    <row r="40" spans="1:40">
+      <c r="AO39" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP39" s="75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43">
       <c r="A40" s="18" t="s">
         <v>230</v>
       </c>
@@ -4425,21 +4923,34 @@
       <c r="AH40" s="28"/>
       <c r="AI40" s="28"/>
       <c r="AJ40" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
       <c r="AK40" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="AL40" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AM40" s="30"/>
-      <c r="AN40" s="30"/>
-    </row>
-    <row r="41" spans="1:40">
+      <c r="AN40" s="30">
+        <v>2</v>
+      </c>
+      <c r="AO40" s="75">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AP40" s="75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43">
       <c r="A41" s="2" t="s">
         <v>138</v>
       </c>
@@ -4490,21 +5001,34 @@
       <c r="AH41" s="28"/>
       <c r="AI41" s="28"/>
       <c r="AJ41" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85</v>
       </c>
       <c r="AK41" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>85</v>
       </c>
       <c r="AL41" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM41" s="30"/>
-      <c r="AN41" s="30"/>
-    </row>
-    <row r="42" spans="1:40">
+      <c r="AN41" s="30">
+        <v>75</v>
+      </c>
+      <c r="AO41" s="75">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="AP41" s="75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43">
       <c r="A42" s="18" t="s">
         <v>198</v>
       </c>
@@ -4549,21 +5073,32 @@
       <c r="AH42" s="28"/>
       <c r="AI42" s="28"/>
       <c r="AJ42" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK42" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AL42" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM42" s="30"/>
       <c r="AN42" s="30"/>
-    </row>
-    <row r="43" spans="1:40">
+      <c r="AO42" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP42" s="75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:43">
       <c r="A43" s="18" t="s">
         <v>141</v>
       </c>
@@ -4612,21 +5147,34 @@
       <c r="AH43" s="28"/>
       <c r="AI43" s="28"/>
       <c r="AJ43" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
       <c r="AK43" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
       <c r="AL43" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM43" s="30"/>
-      <c r="AN43" s="30"/>
-    </row>
-    <row r="44" spans="1:40">
+      <c r="AN43" s="30">
+        <v>60</v>
+      </c>
+      <c r="AO43" s="75">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="AP43" s="75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:43">
       <c r="A44" s="18" t="s">
         <v>144</v>
       </c>
@@ -4677,21 +5225,34 @@
       <c r="AH44" s="28"/>
       <c r="AI44" s="28"/>
       <c r="AJ44" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>120</v>
       </c>
       <c r="AK44" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="AL44" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AM44" s="30"/>
-      <c r="AN44" s="30"/>
-    </row>
-    <row r="45" spans="1:40">
+      <c r="AN44" s="30">
+        <v>67</v>
+      </c>
+      <c r="AO44" s="75">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="AP44" s="75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43">
       <c r="A45" s="2" t="s">
         <v>147</v>
       </c>
@@ -4742,21 +5303,34 @@
       <c r="AH45" s="28"/>
       <c r="AI45" s="28"/>
       <c r="AJ45" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>120</v>
       </c>
       <c r="AK45" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="AL45" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AM45" s="30"/>
-      <c r="AN45" s="30"/>
-    </row>
-    <row r="46" spans="1:40">
+      <c r="AN45" s="30">
+        <v>70</v>
+      </c>
+      <c r="AO45" s="75">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="AP45" s="75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ45" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:43">
       <c r="A46" s="18" t="s">
         <v>150</v>
       </c>
@@ -4805,21 +5379,34 @@
       <c r="AH46" s="28"/>
       <c r="AI46" s="28"/>
       <c r="AJ46" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
       <c r="AK46" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
       <c r="AL46" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM46" s="30"/>
-      <c r="AN46" s="30"/>
-    </row>
-    <row r="47" spans="1:40">
+      <c r="AN46" s="30">
+        <v>68</v>
+      </c>
+      <c r="AO46" s="75">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="AP46" s="75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:43">
       <c r="A47" s="2" t="s">
         <v>153</v>
       </c>
@@ -4870,21 +5457,32 @@
       <c r="AH47" s="28"/>
       <c r="AI47" s="28"/>
       <c r="AJ47" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
       <c r="AK47" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="AL47" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AM47" s="30"/>
       <c r="AN47" s="30"/>
-    </row>
-    <row r="48" spans="1:40">
+      <c r="AO47" s="75">
+        <f t="shared" ref="AO47:AO62" si="11">IF(AN47+AL47&gt;AQ47,AQ47,AN47+AL47)</f>
+        <v>1</v>
+      </c>
+      <c r="AP47" s="75">
+        <f t="shared" ref="AP47:AP62" si="12">IF(AN47+AL47&gt;AQ47,AL47+AN47-AQ47,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ47" s="73">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:43">
       <c r="A48" s="2" t="s">
         <v>156</v>
       </c>
@@ -4933,21 +5531,34 @@
       <c r="AH48" s="28"/>
       <c r="AI48" s="28"/>
       <c r="AJ48" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
       <c r="AK48" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
       <c r="AL48" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM48" s="30"/>
-      <c r="AN48" s="30"/>
-    </row>
-    <row r="49" spans="1:40">
+      <c r="AN48" s="30">
+        <v>18</v>
+      </c>
+      <c r="AO48" s="75">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="AP48" s="75">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AQ48" s="73">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:43">
       <c r="A49" s="2" t="s">
         <v>159</v>
       </c>
@@ -5000,21 +5611,34 @@
       <c r="AH49" s="28"/>
       <c r="AI49" s="28"/>
       <c r="AJ49" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>170</v>
       </c>
       <c r="AK49" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="AL49" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="AM49" s="30"/>
-      <c r="AN49" s="30"/>
-    </row>
-    <row r="50" spans="1:40">
+      <c r="AN49" s="30">
+        <v>75</v>
+      </c>
+      <c r="AO49" s="75">
+        <f t="shared" si="11"/>
+        <v>78</v>
+      </c>
+      <c r="AP49" s="75">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="AQ49" s="73">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:43">
       <c r="A50" s="18" t="s">
         <v>189</v>
       </c>
@@ -5061,21 +5685,34 @@
       <c r="AH50" s="28"/>
       <c r="AI50" s="28"/>
       <c r="AJ50" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
       <c r="AK50" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
       <c r="AL50" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM50" s="30"/>
-      <c r="AN50" s="30"/>
-    </row>
-    <row r="51" spans="1:40">
+      <c r="AN50" s="30">
+        <v>55</v>
+      </c>
+      <c r="AO50" s="75">
+        <f t="shared" si="11"/>
+        <v>55</v>
+      </c>
+      <c r="AP50" s="75">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AQ50" s="73">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:43">
       <c r="A51" s="2" t="s">
         <v>162</v>
       </c>
@@ -5122,21 +5759,34 @@
       <c r="AH51" s="28"/>
       <c r="AI51" s="28"/>
       <c r="AJ51" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="AK51" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="AL51" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM51" s="30"/>
-      <c r="AN51" s="30"/>
-    </row>
-    <row r="52" spans="1:40">
+      <c r="AN51" s="30">
+        <v>65</v>
+      </c>
+      <c r="AO51" s="75">
+        <f t="shared" si="11"/>
+        <v>65</v>
+      </c>
+      <c r="AP51" s="75">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AQ51" s="73">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:43">
       <c r="A52" s="18" t="s">
         <v>166</v>
       </c>
@@ -5187,21 +5837,34 @@
       <c r="AH52" s="28"/>
       <c r="AI52" s="28"/>
       <c r="AJ52" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>95</v>
       </c>
       <c r="AK52" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>95</v>
       </c>
       <c r="AL52" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM52" s="30"/>
-      <c r="AN52" s="30"/>
-    </row>
-    <row r="53" spans="1:40">
+      <c r="AN52" s="30">
+        <v>64</v>
+      </c>
+      <c r="AO52" s="75">
+        <f t="shared" si="11"/>
+        <v>64</v>
+      </c>
+      <c r="AP52" s="75">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AQ52" s="73">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:43">
       <c r="A53" s="18" t="s">
         <v>225</v>
       </c>
@@ -5250,21 +5913,34 @@
       <c r="AH53" s="28"/>
       <c r="AI53" s="28"/>
       <c r="AJ53" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
       <c r="AK53" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
       <c r="AL53" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM53" s="30"/>
-      <c r="AN53" s="30"/>
-    </row>
-    <row r="54" spans="1:40">
+      <c r="AN53" s="30">
+        <v>68</v>
+      </c>
+      <c r="AO53" s="75">
+        <f t="shared" si="11"/>
+        <v>68</v>
+      </c>
+      <c r="AP53" s="75">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AQ53" s="73">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:43">
       <c r="A54" s="18" t="s">
         <v>169</v>
       </c>
@@ -5315,21 +5991,34 @@
       <c r="AH54" s="28"/>
       <c r="AI54" s="28"/>
       <c r="AJ54" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>130</v>
       </c>
       <c r="AK54" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="AL54" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AM54" s="30"/>
-      <c r="AN54" s="30"/>
-    </row>
-    <row r="55" spans="1:40">
+      <c r="AN54" s="30">
+        <v>75</v>
+      </c>
+      <c r="AO54" s="75">
+        <f t="shared" si="11"/>
+        <v>78</v>
+      </c>
+      <c r="AP54" s="75">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AQ54" s="73">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:43">
       <c r="A55" s="18" t="s">
         <v>172</v>
       </c>
@@ -5380,21 +6069,34 @@
       <c r="AH55" s="28"/>
       <c r="AI55" s="28"/>
       <c r="AJ55" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>130</v>
       </c>
       <c r="AK55" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="AL55" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AM55" s="30"/>
-      <c r="AN55" s="30"/>
-    </row>
-    <row r="56" spans="1:40">
+      <c r="AN55" s="30">
+        <v>75</v>
+      </c>
+      <c r="AO55" s="75">
+        <f t="shared" si="11"/>
+        <v>78</v>
+      </c>
+      <c r="AP55" s="75">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AQ55" s="73">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:43">
       <c r="A56" s="18" t="s">
         <v>172</v>
       </c>
@@ -5445,21 +6147,34 @@
       <c r="AH56" s="28"/>
       <c r="AI56" s="28"/>
       <c r="AJ56" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>130</v>
       </c>
       <c r="AK56" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="AL56" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AM56" s="30"/>
-      <c r="AN56" s="30"/>
-    </row>
-    <row r="57" spans="1:40">
+      <c r="AN56" s="30">
+        <v>75</v>
+      </c>
+      <c r="AO56" s="75">
+        <f t="shared" si="11"/>
+        <v>78</v>
+      </c>
+      <c r="AP56" s="75">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AQ56" s="73">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:43">
       <c r="A57" s="18" t="s">
         <v>175</v>
       </c>
@@ -5508,21 +6223,34 @@
       <c r="AH57" s="28"/>
       <c r="AI57" s="28"/>
       <c r="AJ57" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="AK57" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="AL57" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM57" s="30"/>
-      <c r="AN57" s="30"/>
-    </row>
-    <row r="58" spans="1:40">
+      <c r="AN57" s="30">
+        <v>62</v>
+      </c>
+      <c r="AO57" s="75">
+        <f t="shared" si="11"/>
+        <v>62</v>
+      </c>
+      <c r="AP57" s="75">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AQ57" s="73">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:43">
       <c r="A58" s="18"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -5559,21 +6287,32 @@
       <c r="AH58" s="28"/>
       <c r="AI58" s="28"/>
       <c r="AJ58" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK58" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AL58" s="30">
-        <f t="shared" ref="AL35:AL61" si="8">IF(AK58&gt;100,AK58-100,0)</f>
+        <f t="shared" ref="AL58:AL61" si="13">IF(AK58&gt;100,AK58-100,0)</f>
         <v>0</v>
       </c>
       <c r="AM58" s="30"/>
       <c r="AN58" s="30"/>
-    </row>
-    <row r="59" spans="1:40">
+      <c r="AO58" s="75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP58" s="75">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AQ58" s="73">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:43">
       <c r="A59" s="18"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
@@ -5610,21 +6349,32 @@
       <c r="AH59" s="28"/>
       <c r="AI59" s="28"/>
       <c r="AJ59" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK59" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AL59" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM59" s="30"/>
       <c r="AN59" s="30"/>
-    </row>
-    <row r="60" spans="1:40">
+      <c r="AO59" s="75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP59" s="75">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AQ59" s="73">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:43">
       <c r="A60" s="18"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
@@ -5661,21 +6411,32 @@
       <c r="AH60" s="28"/>
       <c r="AI60" s="28"/>
       <c r="AJ60" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK60" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AL60" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM60" s="30"/>
       <c r="AN60" s="30"/>
-    </row>
-    <row r="61" spans="1:40">
+      <c r="AO60" s="75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP60" s="75">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AQ60" s="73">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:43">
       <c r="A61" s="18"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
@@ -5712,19 +6473,43 @@
       <c r="AH61" s="28"/>
       <c r="AI61" s="28"/>
       <c r="AJ61" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK61" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AL61" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM61" s="30"/>
       <c r="AN61" s="30"/>
+      <c r="AO61" s="75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP61" s="75">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AQ61" s="73">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:43">
+      <c r="AO62" s="75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP62" s="75">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AQ62" s="73">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A3:O57">
